--- a/p.xlsx
+++ b/p.xlsx
@@ -563,7 +563,7 @@
   <dimension ref="A4:XFD1335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
